--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup_Jan30\Research\Carle-Illinois Joint Neural Science and Rehabilitation Laboratory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup_Jan30\Research\JNER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0056CE34-7439-4FAF-91B9-B63FE3DF72A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE9472E-5CF0-4D10-A93A-0AC054C4D315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <r>
       <t xml:space="preserve">By downloading or using this template, you agree to comply with the </t>
@@ -378,6 +378,28 @@
   </si>
   <si>
     <t>Improving the shortcoming of the explicit Pooling matrix D of GCN by calculating a more implicit Pooling matrix of a(I,j) for every vertex I, j</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.neuroimage.2020.117126.</t>
+  </si>
+  <si>
+    <t>Kamalaker Dadi, Gaël Varoquaux, Antonia Machlouzarides-Shalit, Krzysztof J. Gorgolewski, Demian Wassermann, Bertrand Thirion, Arthur Mensch,
+Fine-grain atlases of functional modes for fMRI analysis,
+NeuroImage,
+Volume 221,
+2020,
+117126,
+ISSN 1053-8119,
+https://doi.org/10.1016/j.neuroimage.2020.117126.</t>
+  </si>
+  <si>
+    <t>Population imaging markedly increased the size of functional-imaging datasets, shedding new light on the neural basis of inter-individual differences. Analyzing these large data entails new scalability challenges, computational and statistical. For this reason, brain images are typically summarized in a few signals, for instance reducing voxel-level measures with brain atlases or functional modes. A good choice of the corresponding brain networks is important, as most data analyses start from these reduced signals. We contribute finely-resolved atlases of functional modes, comprising from 64 to 1024 networks. These dictionaries of functional modes (DiFuMo) are trained on millions of fMRI functional brain volumes of total size 2.4 ​TB, spanned over 27 studies and many research groups. We demonstrate the benefits of extracting reduced signals on our fine-grain atlases for many classic functional data analysis pipelines: stimuli decoding from 12,334 brain responses, standard GLM analysis of fMRI across sessions and individuals, extraction of resting-state functional-connectomes biomarkers for 2500 individuals, data compression and meta-analysis over more than 15,000 statistical maps. In each of these analysis scenarii, we compare the performance of our functional atlases with that of other popular references, and to a simple voxel-level analysis. Results highlight the importance of using high-dimensional “soft” functional atlases, to represent and analyze brain activity while capturing its functional gradients. Analyses on high-dimensional modes achieve similar statistical performance as at the voxel level, but with much reduced computational cost and higher interpretability. In addition to making them available, we provide meaningful names for these modes, based on their anatomical location. It will facilitate reporting of results.</t>
+  </si>
+  <si>
+    <t>Kamalaker Dadi, Gaël Varoquaux, Antonia Machlouzarides-Shalit, Krzysztof J. Gorgolewski, Demian Wassermann, Bertrand Thirion, Arthur Mensch</t>
+  </si>
+  <si>
+    <t>diFuMo atlas for brain segmentation mask</t>
   </si>
 </sst>
 </file>
@@ -605,19 +627,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,38 +645,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0F4F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF0F4F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -708,8 +716,8 @@
       <xdr:rowOff>447963</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5036956" cy="640688"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -751,6 +759,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1052,7 +1061,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1452,352 +1461,363 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="70" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" style="10" customWidth="1"/>
-    <col min="2" max="11" width="30.6328125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="31.1796875" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="2.26953125" style="9" customWidth="1"/>
+    <col min="2" max="11" width="30.6328125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="31.1796875" style="9" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="2:12" ht="32" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="12" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="2:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="2:12" s="15" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="2:12" s="12" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>2017</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="21" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="128" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <v>2017</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="2:12" ht="320" x14ac:dyDescent="0.35">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="14">
         <v>2017</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:12" ht="176" x14ac:dyDescent="0.35">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>2018</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-    </row>
-    <row r="12" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="2:12" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="14">
+        <v>2020</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
     <row r="21" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="18" t="s">
@@ -1815,134 +1835,134 @@
       <c r="L22" s="19"/>
     </row>
     <row r="23" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
     <row r="24" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
     </row>
     <row r="25" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
     </row>
     <row r="26" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:L6" xr:uid="{47F7A13C-F9B6-42C2-9B10-D9078F3B51FF}"/>
@@ -1952,17 +1972,7 @@
     <mergeCell ref="D22:L22"/>
     <mergeCell ref="C4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10:L21 D8:L9 B9:C9">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISEVEN(ROW())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISEVEN(ROW())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="B8:L11 B13:L21 K12:L12 B12:I12">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>
@@ -2093,12 +2103,12 @@
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.45">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup_Jan30\Research\JNER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE9472E-5CF0-4D10-A93A-0AC054C4D315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593202F5-2CCE-4715-A34E-E29530A52269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <r>
       <t xml:space="preserve">By downloading or using this template, you agree to comply with the </t>
@@ -400,6 +400,19 @@
   </si>
   <si>
     <t>diFuMo atlas for brain segmentation mask</t>
+  </si>
+  <si>
+    <t>{Gordić2020PyTorchGAT,
+  author = {Gordić, Aleksa},
+  title = {pytorch-GAT},
+  year = {2020},
+  publisher = {GitHub},
+  journal = {GitHub repository},
+  howpublished = {\url{https://github.com/gordicaleksa/pytorch-GAT}},
+}</t>
+  </si>
+  <si>
+    <t>GAT Implementations</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1475,7 @@
   <dimension ref="B1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="70" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1702,12 +1715,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="14"/>
+    <row r="13" spans="2:12" ht="192" x14ac:dyDescent="0.35">
+      <c r="B13" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -1972,7 +1989,7 @@
     <mergeCell ref="D22:L22"/>
     <mergeCell ref="C4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:L11 B13:L21 K12:L12 B12:I12">
+  <conditionalFormatting sqref="B8:L11 B12:I12 K12:L12 B13:L21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISEVEN(ROW())</formula>
     </cfRule>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup_Jan30\Research\JNER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593202F5-2CCE-4715-A34E-E29530A52269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6A9B9F-6819-48EE-9C2F-75B62DF63630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <r>
       <t xml:space="preserve">By downloading or using this template, you agree to comply with the </t>
@@ -414,12 +414,74 @@
   <si>
     <t>GAT Implementations</t>
   </si>
+  <si>
+    <t>Sui, Y., Wang, X., Wu, J., Lin, M., He, X., &amp; Chua, T.-S. (2022). Causal Attention for Interpretable and Generalizable Graph Classification. Proceedings of the 28th ACM SIGKDD Conference on Knowledge Discovery and Data Mining, 1696–1705. https://doi.org/10.1145/3534678.3539366</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Causal features and trivial features are difficult to observe from ground-truth data and therefore needed a way to identify; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Solution for identifying causal features and trivial features are learning them through manipulating attention weights of nodes and edges' features ---&gt; New Loss funciton for GAT (Lce = Lce(uniform) + Lce(supervised) + Lce(estimated causal)); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The estimated causal is calculated using do-calculus</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +594,13 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -1474,14 +1543,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="70" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.26953125" style="9" customWidth="1"/>
-    <col min="2" max="11" width="30.6328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="44.6328125" style="9" customWidth="1"/>
+    <col min="3" max="5" width="30.6328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="45.6328125" style="9" customWidth="1"/>
+    <col min="7" max="11" width="30.6328125" style="9" customWidth="1"/>
     <col min="12" max="12" width="31.1796875" style="9" customWidth="1"/>
     <col min="13" max="16384" width="8.7265625" style="9"/>
   </cols>
@@ -1732,12 +1804,16 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14"/>
+    <row r="14" spans="2:12" ht="304" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
